--- a/branches/hiv-test-date_fig-20/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/hiv-test-date_fig-20/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:41:50+00:00</t>
+    <t>2023-02-10T06:42:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-test-date_fig-20/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/hiv-test-date_fig-20/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:42:24+00:00</t>
+    <t>2023-02-10T06:43:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-test-date_fig-20/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/hiv-test-date_fig-20/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T06:43:03+00:00</t>
+    <t>2023-02-10T07:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-test-date_fig-20/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/hiv-test-date_fig-20/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T07:15:04+00:00</t>
+    <t>2023-02-10T07:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-test-date_fig-20/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/hiv-test-date_fig-20/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T07:15:43+00:00</t>
+    <t>2023-02-10T13:48:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-test-date_fig-20/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/hiv-test-date_fig-20/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:48:02+00:00</t>
+    <t>2023-02-10T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/hiv-test-date_fig-20/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/hiv-test-date_fig-20/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:53:42+00:00</t>
+    <t>2023-02-10T13:54:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
